--- a/input/sensors.xlsx
+++ b/input/sensors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasklab.sharepoint.com/sites/LaskaKit/Sdilene dokumenty/GitHub/Projects/1.Board/Air_Board/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{CD8C78CA-4BB0-5B44-9B92-57C4DC780A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9616F74-72C8-2340-AAAB-276DE9F31939}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{CD8C78CA-4BB0-5B44-9B92-57C4DC780A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{339CC550-59CD-304F-BADE-A79DA1822B91}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="6860" windowWidth="34160" windowHeight="17440" xr2:uid="{149056B7-9A4B-3946-9C80-210FBD45A1CA}"/>
   </bookViews>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>AirBoard pins</t>
   </si>
   <si>
     <t>connector</t>
-  </si>
-  <si>
-    <t>JST-XH</t>
   </si>
   <si>
     <t>Pin 2 (GND) -&gt; GND</t>
@@ -288,9 +285,6 @@
     <t>Pin 5 (TX @3.3V) -&gt; Pin D1 (GPIO5)</t>
   </si>
   <si>
-    <t>SPS30 (I2C, 4.5 - 5.5V) 80mA max.</t>
-  </si>
-  <si>
     <t>Pin 2 (SDA @3.3V) -&gt; Pin D3 (GPIO0)</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>Pin 4 (SCL @3.3V) -&gt; Pin D4 (GPIO2)</t>
   </si>
   <si>
-    <t>SEN5x  (I2C, 4.5 - 5.5V) 100mA max.</t>
-  </si>
-  <si>
     <t>gpio</t>
   </si>
   <si>
@@ -327,13 +318,25 @@
     <t>GND (SEL)</t>
   </si>
   <si>
-    <t>SDS011 4.7-5.3V 70mA±10mA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PMS1003 to PMS6003 4.5-5.5V </t>
   </si>
   <si>
     <t>Pin 10 (SET ) -&gt; unused</t>
+  </si>
+  <si>
+    <t>LA131056 SDS011 4.7-5.3V 70mA±10mA</t>
+  </si>
+  <si>
+    <t>LA131057 SPS30 (I2C, 4.5 - 5.5V) 80mA max.</t>
+  </si>
+  <si>
+    <t>JST-XH-7</t>
+  </si>
+  <si>
+    <t>LA131058 a LA131059 SEN5x  (I2C, 4.5 - 5.5V) 100mA max.</t>
+  </si>
+  <si>
+    <t>JST-XH7</t>
   </si>
 </sst>
 </file>
@@ -455,21 +458,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -788,7 +790,7 @@
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -805,17 +807,17 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>72</v>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -823,232 +825,235 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>53</v>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>3</v>
+      <c r="C5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>57</v>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>58</v>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>5</v>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21">
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21">
+      <c r="G12" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21">
+      <c r="G13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21">
-      <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21">
-      <c r="G12" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21">
-      <c r="G13" s="9" t="s">
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="5:6">
       <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" ht="21">
+      <c r="E22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="21">
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="5:6" ht="21">
-      <c r="E22" s="4" t="s">
+    <row r="24" spans="5:6" ht="21">
+      <c r="E24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" ht="21">
+      <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="21">
-      <c r="E23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="F25" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" ht="21">
+      <c r="E26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="21">
-      <c r="E24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="21">
-      <c r="E25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" ht="21">
-      <c r="E26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="27" spans="5:6" ht="21">
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1072,166 +1077,166 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" customHeight="1">
+      <c r="A14" s="10">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" customHeight="1">
-      <c r="A14" s="3">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="16" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" customHeight="1">
+      <c r="A16" s="10">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" customHeight="1">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{A1B28F4E-76C1-5245-85E5-E444E796F3E7}"/>
@@ -1241,8 +1246,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="19" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="0036b16db637cc6a676dcc2067b41e9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c5020b734e98178c9015f9e7154bcb9" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc69d71ab35e1737cd0b316d4d62e72">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="abcc0dc3dc1e21ee8c18ea26c13c5939" ns2:_="" ns3:_="">
     <xsd:import namespace="b567201e-986a-4eb1-9fe2-dd918b324176"/>
     <xsd:import namespace="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
     <xsd:element name="properties">
@@ -1329,7 +1343,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázků" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="977d0dd8-8403-4cc9-a6db-e47d892dcbf5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="977d0dd8-8403-4cc9-a6db-e47d892dcbf5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1340,7 +1354,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bbf37928-e6da-4ab6-9bfa-8061018408c7" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Sdílí se s" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1359,7 +1373,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Sdílené s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1387,8 +1401,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ obsahu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Nadpis"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1477,15 +1491,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1498,10 +1503,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CF61536-355E-418A-9BCC-AC23EAB32458}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B54D1F3-BCC0-474E-A529-FB14E7F6805B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1509,6 +1510,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A4D997-369D-4F14-86A3-FB9C7DDD2962}"/>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77F4068-3881-40AC-860F-49A3B8C95F46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77F4068-3881-40AC-860F-49A3B8C95F46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b567201e-986a-4eb1-9fe2-dd918b324176"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/sensors.xlsx
+++ b/input/sensors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasklab.sharepoint.com/sites/LaskaKit/Sdilene dokumenty/GitHub/Projects/1.Board/Air_Board/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{CD8C78CA-4BB0-5B44-9B92-57C4DC780A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{339CC550-59CD-304F-BADE-A79DA1822B91}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{CD8C78CA-4BB0-5B44-9B92-57C4DC780A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D5EA5BE-A74F-114D-8402-39A5E014A3BA}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="6860" windowWidth="34160" windowHeight="17440" xr2:uid="{149056B7-9A4B-3946-9C80-210FBD45A1CA}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SDS011" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
-  <si>
-    <t>AirBoard pins</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>connector</t>
   </si>
@@ -297,9 +294,6 @@
     <t>Pin 4 (SCL @3.3V) -&gt; Pin D4 (GPIO2)</t>
   </si>
   <si>
-    <t>gpio</t>
-  </si>
-  <si>
     <t>(TX) Pin D2 (GPIO4)</t>
   </si>
   <si>
@@ -336,7 +330,7 @@
     <t>LA131058 a LA131059 SEN5x  (I2C, 4.5 - 5.5V) 100mA max.</t>
   </si>
   <si>
-    <t>JST-XH7</t>
+    <t>AirBoard pins and colors</t>
   </si>
 </sst>
 </file>
@@ -458,19 +452,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,273 +803,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942D18CD-4AB5-8C43-A5C8-B0BC2AE9E3E3}">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="57" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4">
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="21">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21">
+      <c r="A32" s="4">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="21">
+      <c r="A33" s="4">
+        <v>4</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21">
+      <c r="A34" s="4">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
+      <c r="A35" s="4">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21">
+      <c r="A36" s="4">
+        <v>7</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21">
+      <c r="D37" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
+      <c r="D38" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21">
+      <c r="D39" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="21">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="21">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21">
+      <c r="A45" s="4">
+        <v>3</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21">
+      <c r="A46" s="4">
+        <v>4</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="21">
+      <c r="A47" s="4">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="21">
+      <c r="A48" s="4">
+        <v>6</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21">
+      <c r="A49" s="4">
+        <v>7</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21">
+      <c r="D50" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
+      <c r="A58" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
+      <c r="A59" s="4">
+        <v>2</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D59" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="21">
+      <c r="A60" s="4">
+        <v>3</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
+      <c r="A61" s="4">
+        <v>4</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="21">
+      <c r="A62" s="4">
+        <v>5</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="21">
+      <c r="A63" s="4">
+        <v>6</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="21">
+      <c r="A64" s="4">
+        <v>7</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="21">
-      <c r="B4">
+      <c r="D67" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21">
+      <c r="A69" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21">
-      <c r="B5">
+      <c r="B69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21">
+      <c r="A70" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B70" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21">
+      <c r="A71" s="4">
+        <v>3</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21">
+      <c r="A72" s="4">
+        <v>4</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21">
+      <c r="A73" s="4">
+        <v>5</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="21">
+      <c r="A74" s="4">
+        <v>6</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D74" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="21">
+      <c r="A75" s="4">
+        <v>7</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="21">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21">
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21">
-      <c r="G12" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21">
-      <c r="G13" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" ht="21">
-      <c r="E22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" ht="21">
-      <c r="E23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="21">
-      <c r="E24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" ht="21">
-      <c r="E25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" ht="21">
-      <c r="E26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" ht="21">
-      <c r="F27" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1076,140 +1420,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>44</v>
+      <c r="A1" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" customHeight="1">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" customHeight="1">
-      <c r="A14" s="10">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="16" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" customHeight="1">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" customHeight="1">
-      <c r="A16" s="10">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1255,8 +1599,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc69d71ab35e1737cd0b316d4d62e72">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="abcc0dc3dc1e21ee8c18ea26c13c5939" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4be4d03ebf17eec0d5c903c6ed4520f7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bbf9eb830e04908b07a94ba48a9b1df" ns2:_="" ns3:_="">
     <xsd:import namespace="b567201e-986a-4eb1-9fe2-dd918b324176"/>
     <xsd:import namespace="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
     <xsd:element name="properties">
@@ -1279,6 +1623,7 @@
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1349,6 +1694,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bbf37928-e6da-4ab6-9bfa-8061018408c7" elementFormDefault="qualified">
@@ -1511,21 +1861,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A4D997-369D-4F14-86A3-FB9C7DDD2962}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB01D1C5-8C12-49B7-9CDF-26DBCB99A586}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77F4068-3881-40AC-860F-49A3B8C95F46}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
     <ds:schemaRef ds:uri="b567201e-986a-4eb1-9fe2-dd918b324176"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/input/sensors.xlsx
+++ b/input/sensors.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasklab.sharepoint.com/sites/LaskaKit/Sdilene dokumenty/GitHub/Projects/1.Board/Air_Board/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{CD8C78CA-4BB0-5B44-9B92-57C4DC780A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D5EA5BE-A74F-114D-8402-39A5E014A3BA}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{CD8C78CA-4BB0-5B44-9B92-57C4DC780A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5EA8C83-8173-9548-AA6D-019CC0953D6E}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="6860" windowWidth="34160" windowHeight="17440" xr2:uid="{149056B7-9A4B-3946-9C80-210FBD45A1CA}"/>
+    <workbookView xWindow="19400" yWindow="2660" windowWidth="34160" windowHeight="17440" xr2:uid="{149056B7-9A4B-3946-9C80-210FBD45A1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SDS011" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -455,9 +455,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -487,6 +484,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,598 +805,598 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942D18CD-4AB5-8C43-A5C8-B0BC2AE9E3E3}">
   <dimension ref="A2:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="57" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="57" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>1</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>2</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>3</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>4</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>5</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>6</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>7</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>1</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>2</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>3</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>4</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>5</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>6</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>7</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>1</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>2</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>3</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>4</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>5</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>6</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>7</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="21">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>1</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>2</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>3</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>4</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>5</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>6</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>7</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1428,159 +1428,159 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" ht="16" customHeight="1">
-      <c r="A14" s="2">
+      <c r="A14" s="12">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" ht="16" customHeight="1">
-      <c r="A16" s="2">
+      <c r="A16" s="12">
         <v>7</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{A1B28F4E-76C1-5245-85E5-E444E796F3E7}"/>
@@ -1599,6 +1599,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="bbf37928-e6da-4ab6-9bfa-8061018408c7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b567201e-986a-4eb1-9fe2-dd918b324176">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4be4d03ebf17eec0d5c903c6ed4520f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bbf9eb830e04908b07a94ba48a9b1df" ns2:_="" ns3:_="">
     <xsd:import namespace="b567201e-986a-4eb1-9fe2-dd918b324176"/>
@@ -1841,17 +1852,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="bbf37928-e6da-4ab6-9bfa-8061018408c7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b567201e-986a-4eb1-9fe2-dd918b324176">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B54D1F3-BCC0-474E-A529-FB14E7F6805B}">
   <ds:schemaRefs>
@@ -1861,22 +1861,37 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB01D1C5-8C12-49B7-9CDF-26DBCB99A586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77F4068-3881-40AC-860F-49A3B8C95F46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b567201e-986a-4eb1-9fe2-dd918b324176"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77F4068-3881-40AC-860F-49A3B8C95F46}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB01D1C5-8C12-49B7-9CDF-26DBCB99A586}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b567201e-986a-4eb1-9fe2-dd918b324176"/>
+    <ds:schemaRef ds:uri="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
-    <ds:schemaRef ds:uri="b567201e-986a-4eb1-9fe2-dd918b324176"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/sensors.xlsx
+++ b/input/sensors.xlsx
@@ -1610,8 +1610,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4be4d03ebf17eec0d5c903c6ed4520f7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bbf9eb830e04908b07a94ba48a9b1df" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EE426B0F2889D84FA6130E4A50034A19" ma:contentTypeVersion="22" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="8735da182905631c5e3f6f06fa450e11">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b567201e-986a-4eb1-9fe2-dd918b324176" xmlns:ns3="bbf37928-e6da-4ab6-9bfa-8061018408c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bbf3fe21448eca55b9826445a32901c" ns2:_="" ns3:_="">
     <xsd:import namespace="b567201e-986a-4eb1-9fe2-dd918b324176"/>
     <xsd:import namespace="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
     <xsd:element name="properties">
@@ -1635,6 +1635,8 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1699,7 +1701,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="977d0dd8-8403-4cc9-a6db-e47d892dcbf5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázků" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="977d0dd8-8403-4cc9-a6db-e47d892dcbf5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -1711,11 +1713,21 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="24" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bbf37928-e6da-4ab6-9bfa-8061018408c7" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Sdílí se s" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1734,7 +1746,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Sdílené s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1762,8 +1774,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ obsahu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Nadpis"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1878,20 +1890,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB01D1C5-8C12-49B7-9CDF-26DBCB99A586}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b567201e-986a-4eb1-9fe2-dd918b324176"/>
-    <ds:schemaRef ds:uri="bbf37928-e6da-4ab6-9bfa-8061018408c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A8D7D4-8FF4-4379-8A22-F36120EE6B31}"/>
 </file>